--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1604605.47506486</v>
+        <v>1550578.78734491</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4356860.590084112</v>
+        <v>4356860.590084111</v>
       </c>
     </row>
     <row r="8">
@@ -2326,19 +2326,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="H23" t="n">
-        <v>90.40311736807173</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="I23" t="n">
-        <v>102.6375083652041</v>
+        <v>31.8377937190847</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>58.56532364898706</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2396,13 +2396,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>75.22938935770472</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>81.40470469615312</v>
       </c>
       <c r="D24" t="n">
-        <v>56.14127127247613</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>66.34128616323832</v>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>43.60474588568188</v>
+        <v>45.74943146950427</v>
       </c>
     </row>
     <row r="25">
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>75.94302680646521</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>85.98959708500686</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.40311736807173</v>
+        <v>31.10800184180376</v>
       </c>
     </row>
     <row r="26">
@@ -2554,29 +2554,29 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>90.40311736807172</v>
+      </c>
+      <c r="C26" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>100.6186523625792</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>92.42197337069669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2639,22 +2639,22 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>64.80140687579107</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H27" t="n">
-        <v>62.98497865792594</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>40.14616727284456</v>
+        <v>40.14616727284457</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2687,13 +2687,13 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>89.90947980250533</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2718,23 +2718,23 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>58.94555099215328</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>97.18349706799867</v>
       </c>
       <c r="F28" t="n">
-        <v>96.17058244436072</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
       <c r="J28" t="n">
         <v>0</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>36.91157767312387</v>
+        <v>36.91157767312388</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>59.95846561579127</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>90.40311736807173</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>90.40311736807172</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2873,16 +2873,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>90.40311736807172</v>
       </c>
       <c r="D30" t="n">
-        <v>98.19459998606823</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>95.81874681481335</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>40.14616727284456</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>50.90736857407261</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>10.61125145068116</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X30" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2949,64 +2949,64 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>90.40311736807172</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>99.36500743964183</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>36.91157767312387</v>
-      </c>
-      <c r="R31" t="n">
-        <v>56.76404062051018</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>33.89317954359487</v>
       </c>
       <c r="I32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>56.50993782447691</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W32" t="n">
-        <v>33.89317954359483</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>79.34931887164296</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3158,25 +3158,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>69.70696981509501</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="U33" t="n">
-        <v>0</v>
-      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>70.73229769957294</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Y33" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>10.14970008434572</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>83.93421126049671</v>
       </c>
       <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="T34" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="U34" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="V34" t="n">
-        <v>6.468906107575016</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
-        <v>90.40311736807173</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>90.40311736807172</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>73.17400353319456</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>27.23365296379279</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>54.08588544796598</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>43.98433704653786</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>18.87626411982369</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>78.32399098716505</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>50.43073440738262</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
     </row>
     <row r="37">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>86.47280006526452</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>55.25629290153958</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>74.63179924178598</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T37" t="n">
         <v>102.6375083652041</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Y37" t="n">
-        <v>79.31724188988983</v>
+        <v>6.468906107575018</v>
       </c>
     </row>
     <row r="38">
@@ -3514,7 +3514,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>33.89317954359487</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>56.50993782447691</v>
       </c>
       <c r="S38" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>33.89317954359479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>51.85603357974926</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>43.98433704653786</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>18.87626411982369</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>78.32399098716505</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>11.05379849642874</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>73.88764098195506</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>16.51547638611667</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="X40" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.40311736807173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>90.40311736807172</v>
       </c>
       <c r="G41" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>100.6186523625792</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>92.42197337069669</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3827,19 +3827,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>88.09305158464015</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>13.89403830171839</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>40.14616727284459</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,28 +3866,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>50.90736857407265</v>
       </c>
       <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="T42" t="n">
-        <v>0</v>
-      </c>
-      <c r="U42" t="n">
-        <v>0</v>
-      </c>
-      <c r="V42" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="W42" t="n">
-        <v>90.40311736807173</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
-      </c>
       <c r="Y42" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3897,58 +3897,58 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="C43" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
-      </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="W43" t="n">
-        <v>90.40311736807178</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>102.6375083652041</v>
+        <v>90.40311736807172</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>92.42197337069661</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,7 +3988,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>90.40311736807173</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>79.14827850127723</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>88.09305158464014</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.310065783431589</v>
+        <v>62.98497865792597</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>50.90736857407264</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4118,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4149,61 +4149,61 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>44.10871453810228</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>46.29440282996949</v>
       </c>
-      <c r="H46" t="n">
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="I46" t="n">
+      <c r="X46" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="J46" t="n">
-        <v>44.10871453810227</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
+      <c r="Y46" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
-      </c>
-      <c r="X46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>410.5500334608164</v>
+        <v>351.3931408860819</v>
       </c>
       <c r="C23" t="n">
-        <v>410.5500334608164</v>
+        <v>351.3931408860819</v>
       </c>
       <c r="D23" t="n">
-        <v>410.5500334608164</v>
+        <v>351.3931408860819</v>
       </c>
       <c r="E23" t="n">
-        <v>306.8757825868728</v>
+        <v>351.3931408860819</v>
       </c>
       <c r="F23" t="n">
-        <v>203.2015317129293</v>
+        <v>247.7188900121384</v>
       </c>
       <c r="G23" t="n">
-        <v>203.2015317129293</v>
+        <v>144.0446391381949</v>
       </c>
       <c r="H23" t="n">
-        <v>111.8852515431599</v>
+        <v>40.37038826425137</v>
       </c>
       <c r="I23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K23" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L23" t="n">
-        <v>16.05657832410927</v>
+        <v>105.7166336161602</v>
       </c>
       <c r="M23" t="n">
-        <v>117.6677116056613</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="N23" t="n">
-        <v>219.2788448872134</v>
+        <v>308.9389001792643</v>
       </c>
       <c r="O23" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P23" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q23" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R23" t="n">
-        <v>410.5500334608164</v>
+        <v>351.3931408860819</v>
       </c>
       <c r="S23" t="n">
-        <v>410.5500334608164</v>
+        <v>351.3931408860819</v>
       </c>
       <c r="T23" t="n">
-        <v>410.5500334608164</v>
+        <v>351.3931408860819</v>
       </c>
       <c r="U23" t="n">
-        <v>410.5500334608164</v>
+        <v>351.3931408860819</v>
       </c>
       <c r="V23" t="n">
-        <v>410.5500334608164</v>
+        <v>351.3931408860819</v>
       </c>
       <c r="W23" t="n">
-        <v>410.5500334608164</v>
+        <v>351.3931408860819</v>
       </c>
       <c r="X23" t="n">
-        <v>410.5500334608164</v>
+        <v>351.3931408860819</v>
       </c>
       <c r="Y23" t="n">
-        <v>410.5500334608164</v>
+        <v>351.3931408860819</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>253.8871101160017</v>
+        <v>279.4057297358775</v>
       </c>
       <c r="C24" t="n">
-        <v>253.8871101160017</v>
+        <v>197.1787552953188</v>
       </c>
       <c r="D24" t="n">
         <v>197.1787552953188</v>
@@ -6059,37 +6059,37 @@
         <v>75.85885199788487</v>
       </c>
       <c r="G24" t="n">
-        <v>29.3540814210687</v>
+        <v>29.35408142106869</v>
       </c>
       <c r="H24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K24" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L24" t="n">
-        <v>8.211000669216329</v>
+        <v>36.32207510283092</v>
       </c>
       <c r="M24" t="n">
-        <v>109.8221339507684</v>
+        <v>36.32207510283092</v>
       </c>
       <c r="N24" t="n">
-        <v>211.4332672323204</v>
+        <v>137.933208384383</v>
       </c>
       <c r="O24" t="n">
-        <v>313.0444005138725</v>
+        <v>239.544341665935</v>
       </c>
       <c r="P24" t="n">
         <v>341.1554749474871</v>
       </c>
       <c r="Q24" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R24" t="n">
         <v>401.6065588542704</v>
@@ -6098,22 +6098,22 @@
         <v>401.6065588542704</v>
       </c>
       <c r="T24" t="n">
-        <v>297.9323079803269</v>
+        <v>401.6065588542704</v>
       </c>
       <c r="U24" t="n">
-        <v>297.9323079803269</v>
+        <v>401.6065588542704</v>
       </c>
       <c r="V24" t="n">
-        <v>297.9323079803269</v>
+        <v>401.6065588542704</v>
       </c>
       <c r="W24" t="n">
-        <v>297.9323079803269</v>
+        <v>401.6065588542704</v>
       </c>
       <c r="X24" t="n">
-        <v>297.9323079803269</v>
+        <v>401.6065588542704</v>
       </c>
       <c r="Y24" t="n">
-        <v>253.8871101160017</v>
+        <v>355.3950119153772</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.211000669216329</v>
+        <v>84.92112875655494</v>
       </c>
       <c r="C25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="D25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="E25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="F25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="G25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J25" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K25" t="n">
-        <v>76.55496011083331</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L25" t="n">
-        <v>178.1660933923854</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="M25" t="n">
-        <v>217.3541315846076</v>
+        <v>202.2374333676487</v>
       </c>
       <c r="N25" t="n">
-        <v>261.0449822400439</v>
+        <v>303.8485666492007</v>
       </c>
       <c r="O25" t="n">
-        <v>317.7631699092673</v>
+        <v>405.4596999307528</v>
       </c>
       <c r="P25" t="n">
         <v>405.4596999307528</v>
       </c>
       <c r="Q25" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R25" t="n">
-        <v>410.5500334608164</v>
+        <v>323.691854587072</v>
       </c>
       <c r="S25" t="n">
-        <v>410.5500334608164</v>
+        <v>220.0176037131285</v>
       </c>
       <c r="T25" t="n">
-        <v>410.5500334608164</v>
+        <v>220.0176037131285</v>
       </c>
       <c r="U25" t="n">
-        <v>410.5500334608164</v>
+        <v>220.0176037131285</v>
       </c>
       <c r="V25" t="n">
-        <v>306.8757825868728</v>
+        <v>220.0176037131285</v>
       </c>
       <c r="W25" t="n">
-        <v>203.2015317129293</v>
+        <v>220.0176037131285</v>
       </c>
       <c r="X25" t="n">
-        <v>99.52728083898576</v>
+        <v>116.343352839185</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.211000669216329</v>
+        <v>84.92112875655494</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>111.8852515431599</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="C26" t="n">
         <v>111.8852515431599</v>
       </c>
       <c r="D26" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="E26" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F26" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G26" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H26" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K26" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L26" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="M26" t="n">
-        <v>207.3277668977123</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="N26" t="n">
-        <v>308.9389001792644</v>
+        <v>308.9389001792643</v>
       </c>
       <c r="O26" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P26" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q26" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R26" t="n">
-        <v>308.9150310743728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S26" t="n">
-        <v>308.9150310743728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T26" t="n">
-        <v>308.9150310743728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U26" t="n">
-        <v>308.9150310743728</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V26" t="n">
-        <v>308.9150310743728</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W26" t="n">
-        <v>308.9150310743728</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X26" t="n">
-        <v>308.9150310743728</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="Y26" t="n">
-        <v>215.5595024171034</v>
+        <v>306.8757825868728</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>112.3838753467623</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="C27" t="n">
-        <v>112.3838753467623</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="D27" t="n">
-        <v>112.3838753467623</v>
+        <v>241.4198160456697</v>
       </c>
       <c r="E27" t="n">
-        <v>112.3838753467623</v>
+        <v>137.7455651717262</v>
       </c>
       <c r="F27" t="n">
-        <v>112.3838753467623</v>
+        <v>137.7455651717262</v>
       </c>
       <c r="G27" t="n">
-        <v>112.3838753467623</v>
+        <v>48.76268478320075</v>
       </c>
       <c r="H27" t="n">
-        <v>48.76268478320074</v>
+        <v>48.76268478320075</v>
       </c>
       <c r="I27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J27" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K27" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="L27" t="n">
-        <v>109.8221339507684</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M27" t="n">
         <v>211.4332672323204</v>
       </c>
       <c r="N27" t="n">
-        <v>308.9389001792644</v>
+        <v>239.544341665935</v>
       </c>
       <c r="O27" t="n">
-        <v>410.5500334608164</v>
+        <v>239.544341665935</v>
       </c>
       <c r="P27" t="n">
-        <v>410.5500334608164</v>
+        <v>341.1554749474871</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R27" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S27" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T27" t="n">
-        <v>306.8757825868728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U27" t="n">
-        <v>306.8757825868728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="V27" t="n">
-        <v>216.0581262207058</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="W27" t="n">
-        <v>216.0581262207058</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="X27" t="n">
-        <v>216.0581262207058</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Y27" t="n">
-        <v>216.0581262207058</v>
+        <v>410.5500334608163</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>209.0272540122111</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="C28" t="n">
-        <v>209.0272540122111</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="D28" t="n">
-        <v>209.0272540122111</v>
+        <v>210.0504000966939</v>
       </c>
       <c r="E28" t="n">
-        <v>209.0272540122111</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F28" t="n">
         <v>111.8852515431599</v>
       </c>
       <c r="G28" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="H28" t="n">
-        <v>8.211000669216329</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="I28" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J28" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K28" t="n">
-        <v>34.92216468437711</v>
+        <v>34.92216468437709</v>
       </c>
       <c r="L28" t="n">
         <v>110.9942506148749</v>
@@ -6396,40 +6396,40 @@
         <v>198.9402497298818</v>
       </c>
       <c r="N28" t="n">
-        <v>291.389061308103</v>
+        <v>291.3890613081029</v>
       </c>
       <c r="O28" t="n">
         <v>364.486298865787</v>
       </c>
       <c r="P28" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q28" t="n">
-        <v>373.2656115687721</v>
+        <v>373.265611568772</v>
       </c>
       <c r="R28" t="n">
-        <v>373.2656115687721</v>
+        <v>373.265611568772</v>
       </c>
       <c r="S28" t="n">
-        <v>373.2656115687721</v>
+        <v>373.265611568772</v>
       </c>
       <c r="T28" t="n">
-        <v>269.5913606948286</v>
+        <v>373.265611568772</v>
       </c>
       <c r="U28" t="n">
-        <v>269.5913606948286</v>
+        <v>373.265611568772</v>
       </c>
       <c r="V28" t="n">
-        <v>269.5913606948286</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="W28" t="n">
-        <v>269.5913606948286</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="X28" t="n">
-        <v>209.0272540122111</v>
+        <v>269.5913606948285</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.0272540122111</v>
+        <v>269.5913606948285</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>99.52728083898576</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="C29" t="n">
-        <v>99.52728083898576</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="D29" t="n">
-        <v>8.211000669216329</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="E29" t="n">
-        <v>8.211000669216329</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="F29" t="n">
-        <v>8.211000669216329</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="G29" t="n">
-        <v>8.211000669216329</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="H29" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="I29" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J29" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K29" t="n">
-        <v>8.211000669216329</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L29" t="n">
-        <v>16.05657832410927</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M29" t="n">
-        <v>117.6677116056613</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="N29" t="n">
-        <v>219.2788448872134</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="O29" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P29" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q29" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R29" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S29" t="n">
         <v>306.8757825868728</v>
@@ -6496,19 +6496,19 @@
         <v>306.8757825868728</v>
       </c>
       <c r="U29" t="n">
-        <v>203.2015317129293</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V29" t="n">
-        <v>99.52728083898576</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W29" t="n">
-        <v>99.52728083898576</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="X29" t="n">
-        <v>99.52728083898576</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="Y29" t="n">
-        <v>99.52728083898576</v>
+        <v>306.8757825868728</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>244.7357623598488</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="C30" t="n">
-        <v>244.7357623598488</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="D30" t="n">
-        <v>145.5492977274567</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="E30" t="n">
-        <v>145.5492977274567</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="F30" t="n">
-        <v>48.76268478320074</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="G30" t="n">
-        <v>48.76268478320074</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H30" t="n">
-        <v>48.76268478320074</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I30" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J30" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K30" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L30" t="n">
+        <v>8.211000669216327</v>
+      </c>
+      <c r="M30" t="n">
         <v>109.8221339507684</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>211.4332672323204</v>
       </c>
-      <c r="N30" t="n">
-        <v>308.9389001792644</v>
-      </c>
       <c r="O30" t="n">
-        <v>410.5500334608164</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="P30" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R30" t="n">
-        <v>359.1284490425612</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S30" t="n">
-        <v>359.1284490425612</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T30" t="n">
-        <v>359.1284490425612</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U30" t="n">
-        <v>359.1284490425612</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="V30" t="n">
-        <v>348.4100132337924</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="W30" t="n">
-        <v>348.4100132337924</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="X30" t="n">
-        <v>244.7357623598488</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="Y30" t="n">
-        <v>244.7357623598488</v>
+        <v>99.52728083898575</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>108.5796950526929</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="C31" t="n">
-        <v>108.5796950526929</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="D31" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="E31" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="F31" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="G31" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H31" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I31" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J31" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K31" t="n">
-        <v>34.92216468437712</v>
+        <v>34.9221646843771</v>
       </c>
       <c r="L31" t="n">
-        <v>110.9942506148748</v>
+        <v>110.9942506148749</v>
       </c>
       <c r="M31" t="n">
         <v>198.9402497298818</v>
       </c>
       <c r="N31" t="n">
-        <v>291.389061308103</v>
+        <v>291.3890613081029</v>
       </c>
       <c r="O31" t="n">
         <v>364.486298865787</v>
       </c>
       <c r="P31" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q31" t="n">
-        <v>373.2656115687721</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R31" t="n">
-        <v>315.92819680058</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S31" t="n">
-        <v>315.92819680058</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="T31" t="n">
-        <v>315.92819680058</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="U31" t="n">
-        <v>315.92819680058</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="V31" t="n">
-        <v>315.92819680058</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="W31" t="n">
-        <v>315.92819680058</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="X31" t="n">
-        <v>315.92819680058</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.2539459266365</v>
+        <v>99.52728083898575</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>215.5595024171034</v>
+        <v>146.1207864356799</v>
       </c>
       <c r="C32" t="n">
-        <v>215.5595024171034</v>
+        <v>146.1207864356799</v>
       </c>
       <c r="D32" t="n">
-        <v>215.5595024171034</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="E32" t="n">
-        <v>215.5595024171034</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="F32" t="n">
-        <v>111.8852515431599</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="G32" t="n">
-        <v>111.8852515431599</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="H32" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I32" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J32" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K32" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="L32" t="n">
-        <v>211.4332672323204</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="M32" t="n">
-        <v>313.0444005138725</v>
+        <v>308.9389001792643</v>
       </c>
       <c r="N32" t="n">
-        <v>313.0444005138725</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="O32" t="n">
-        <v>320.8899781687654</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P32" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q32" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R32" t="n">
         <v>353.469288183567</v>
       </c>
       <c r="S32" t="n">
-        <v>353.469288183567</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="T32" t="n">
-        <v>353.469288183567</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="U32" t="n">
-        <v>353.469288183567</v>
+        <v>249.7950373096234</v>
       </c>
       <c r="V32" t="n">
-        <v>353.469288183567</v>
+        <v>146.1207864356799</v>
       </c>
       <c r="W32" t="n">
-        <v>319.2337532910469</v>
+        <v>146.1207864356799</v>
       </c>
       <c r="X32" t="n">
-        <v>215.5595024171034</v>
+        <v>146.1207864356799</v>
       </c>
       <c r="Y32" t="n">
-        <v>215.5595024171034</v>
+        <v>146.1207864356799</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>132.7904510916212</v>
+        <v>52.6396239485475</v>
       </c>
       <c r="C33" t="n">
-        <v>52.63962394854751</v>
+        <v>52.6396239485475</v>
       </c>
       <c r="D33" t="n">
-        <v>52.63962394854751</v>
+        <v>52.6396239485475</v>
       </c>
       <c r="E33" t="n">
-        <v>52.63962394854751</v>
+        <v>52.6396239485475</v>
       </c>
       <c r="F33" t="n">
-        <v>52.63962394854751</v>
+        <v>52.6396239485475</v>
       </c>
       <c r="G33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J33" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K33" t="n">
-        <v>105.7166336161603</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="L33" t="n">
-        <v>207.3277668977123</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M33" t="n">
-        <v>308.9389001792644</v>
+        <v>313.0444005138725</v>
       </c>
       <c r="N33" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="O33" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P33" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R33" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S33" t="n">
-        <v>340.1389528395083</v>
+        <v>331.4348910495385</v>
       </c>
       <c r="T33" t="n">
-        <v>236.4647019655648</v>
+        <v>331.4348910495385</v>
       </c>
       <c r="U33" t="n">
-        <v>236.4647019655648</v>
+        <v>227.760640175595</v>
       </c>
       <c r="V33" t="n">
-        <v>236.4647019655648</v>
+        <v>227.760640175595</v>
       </c>
       <c r="W33" t="n">
-        <v>236.4647019655648</v>
+        <v>156.313874822491</v>
       </c>
       <c r="X33" t="n">
-        <v>236.4647019655648</v>
+        <v>52.6396239485475</v>
       </c>
       <c r="Y33" t="n">
-        <v>132.7904510916212</v>
+        <v>52.6396239485475</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.211000669216329</v>
+        <v>222.0937510106135</v>
       </c>
       <c r="C34" t="n">
-        <v>8.211000669216329</v>
+        <v>147.4597702207599</v>
       </c>
       <c r="D34" t="n">
-        <v>8.211000669216329</v>
+        <v>147.4597702207599</v>
       </c>
       <c r="E34" t="n">
-        <v>8.211000669216329</v>
+        <v>93.84887877642008</v>
       </c>
       <c r="F34" t="n">
-        <v>8.211000669216329</v>
+        <v>93.84887877642008</v>
       </c>
       <c r="G34" t="n">
-        <v>8.211000669216329</v>
+        <v>18.46322297663625</v>
       </c>
       <c r="H34" t="n">
-        <v>8.211000669216329</v>
+        <v>18.46322297663625</v>
       </c>
       <c r="I34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J34" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K34" t="n">
         <v>78.58979207709835</v>
       </c>
       <c r="L34" t="n">
-        <v>180.2009253586504</v>
+        <v>105.9039170848113</v>
       </c>
       <c r="M34" t="n">
-        <v>245.6633786864016</v>
+        <v>207.5150503663634</v>
       </c>
       <c r="N34" t="n">
-        <v>289.3542293418379</v>
+        <v>289.3542293418378</v>
       </c>
       <c r="O34" t="n">
-        <v>313.6935059767372</v>
+        <v>313.6935059767371</v>
       </c>
       <c r="P34" t="n">
-        <v>403.4248679644878</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="Q34" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R34" t="n">
-        <v>325.7680018845571</v>
+        <v>325.768001884557</v>
       </c>
       <c r="S34" t="n">
+        <v>325.768001884557</v>
+      </c>
+      <c r="T34" t="n">
+        <v>325.768001884557</v>
+      </c>
+      <c r="U34" t="n">
+        <v>325.768001884557</v>
+      </c>
+      <c r="V34" t="n">
+        <v>325.768001884557</v>
+      </c>
+      <c r="W34" t="n">
         <v>222.0937510106135</v>
       </c>
-      <c r="T34" t="n">
-        <v>118.41950013667</v>
-      </c>
-      <c r="U34" t="n">
-        <v>14.74524926272645</v>
-      </c>
-      <c r="V34" t="n">
-        <v>8.211000669216329</v>
-      </c>
-      <c r="W34" t="n">
-        <v>8.211000669216329</v>
-      </c>
       <c r="X34" t="n">
-        <v>8.211000669216329</v>
+        <v>222.0937510106135</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.211000669216329</v>
+        <v>222.0937510106135</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.52728083898576</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="C35" t="n">
-        <v>99.52728083898576</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="D35" t="n">
-        <v>99.52728083898576</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="E35" t="n">
-        <v>99.52728083898576</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F35" t="n">
-        <v>99.52728083898576</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="G35" t="n">
-        <v>99.52728083898576</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H35" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I35" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J35" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K35" t="n">
-        <v>8.211000669216329</v>
+        <v>16.05657832410924</v>
       </c>
       <c r="L35" t="n">
-        <v>109.8221339507684</v>
+        <v>117.6677116056613</v>
       </c>
       <c r="M35" t="n">
-        <v>117.6677116056613</v>
+        <v>219.2788448872133</v>
       </c>
       <c r="N35" t="n">
-        <v>219.2788448872134</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="O35" t="n">
         <v>320.8899781687654</v>
       </c>
       <c r="P35" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q35" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R35" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S35" t="n">
-        <v>410.5500334608164</v>
+        <v>319.2337532910469</v>
       </c>
       <c r="T35" t="n">
-        <v>410.5500334608164</v>
+        <v>215.5595024171034</v>
       </c>
       <c r="U35" t="n">
-        <v>410.5500334608164</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="V35" t="n">
-        <v>410.5500334608164</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="W35" t="n">
-        <v>306.8757825868728</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="X35" t="n">
-        <v>306.8757825868728</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="Y35" t="n">
-        <v>203.2015317129293</v>
+        <v>111.8852515431599</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>153.8475052935803</v>
+        <v>73.14625353661853</v>
       </c>
       <c r="C36" t="n">
-        <v>126.3387649261128</v>
+        <v>73.14625353661853</v>
       </c>
       <c r="D36" t="n">
-        <v>71.70655740291487</v>
+        <v>73.14625353661853</v>
       </c>
       <c r="E36" t="n">
-        <v>71.70655740291487</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="F36" t="n">
-        <v>71.70655740291487</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="G36" t="n">
-        <v>27.27793412358369</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H36" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I36" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J36" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K36" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L36" t="n">
-        <v>109.8221339507684</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="M36" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="N36" t="n">
-        <v>211.4332672323204</v>
+        <v>137.933208384383</v>
       </c>
       <c r="O36" t="n">
-        <v>239.5443416659351</v>
+        <v>239.544341665935</v>
       </c>
       <c r="P36" t="n">
         <v>341.1554749474871</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R36" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S36" t="n">
-        <v>331.4348910495386</v>
+        <v>331.4348910495385</v>
       </c>
       <c r="T36" t="n">
-        <v>331.4348910495386</v>
+        <v>280.4947552845056</v>
       </c>
       <c r="U36" t="n">
-        <v>227.760640175595</v>
+        <v>280.4947552845056</v>
       </c>
       <c r="V36" t="n">
-        <v>227.760640175595</v>
+        <v>280.4947552845056</v>
       </c>
       <c r="W36" t="n">
-        <v>227.760640175595</v>
+        <v>280.4947552845056</v>
       </c>
       <c r="X36" t="n">
-        <v>227.760640175595</v>
+        <v>176.8205044105621</v>
       </c>
       <c r="Y36" t="n">
-        <v>227.760640175595</v>
+        <v>73.14625353661853</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.4110937432826</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="C37" t="n">
-        <v>139.4110937432826</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="D37" t="n">
-        <v>83.59665646900017</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="E37" t="n">
-        <v>83.59665646900017</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="F37" t="n">
-        <v>83.59665646900017</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="G37" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H37" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I37" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J37" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K37" t="n">
-        <v>8.211000669216329</v>
+        <v>78.58979207709835</v>
       </c>
       <c r="L37" t="n">
-        <v>109.8221339507684</v>
+        <v>180.2009253586504</v>
       </c>
       <c r="M37" t="n">
-        <v>211.4332672323204</v>
+        <v>219.3889635508726</v>
       </c>
       <c r="N37" t="n">
-        <v>255.1241178877568</v>
+        <v>289.3542293418378</v>
       </c>
       <c r="O37" t="n">
-        <v>313.6935059767372</v>
+        <v>313.6935059767371</v>
       </c>
       <c r="P37" t="n">
-        <v>403.4248679644878</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="Q37" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R37" t="n">
-        <v>410.5500334608164</v>
+        <v>325.768001884557</v>
       </c>
       <c r="S37" t="n">
-        <v>410.5500334608164</v>
+        <v>222.0937510106135</v>
       </c>
       <c r="T37" t="n">
-        <v>306.8757825868728</v>
+        <v>118.41950013667</v>
       </c>
       <c r="U37" t="n">
-        <v>306.8757825868728</v>
+        <v>118.41950013667</v>
       </c>
       <c r="V37" t="n">
-        <v>306.8757825868728</v>
+        <v>118.41950013667</v>
       </c>
       <c r="W37" t="n">
-        <v>306.8757825868728</v>
+        <v>118.41950013667</v>
       </c>
       <c r="X37" t="n">
-        <v>306.8757825868728</v>
+        <v>14.74524926272645</v>
       </c>
       <c r="Y37" t="n">
-        <v>226.757356435469</v>
+        <v>8.211000669216327</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>111.8852515431599</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="C38" t="n">
-        <v>111.8852515431599</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="D38" t="n">
-        <v>111.8852515431599</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="E38" t="n">
-        <v>111.8852515431599</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="F38" t="n">
-        <v>8.211000669216329</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="G38" t="n">
-        <v>8.211000669216329</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="H38" t="n">
-        <v>8.211000669216329</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="I38" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J38" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K38" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L38" t="n">
-        <v>109.8221339507684</v>
+        <v>16.05657832410924</v>
       </c>
       <c r="M38" t="n">
-        <v>211.4332672323204</v>
+        <v>117.6677116056613</v>
       </c>
       <c r="N38" t="n">
-        <v>313.0444005138725</v>
+        <v>219.2788448872133</v>
       </c>
       <c r="O38" t="n">
-        <v>410.5500334608164</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="P38" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q38" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R38" t="n">
         <v>353.469288183567</v>
       </c>
       <c r="S38" t="n">
+        <v>353.469288183567</v>
+      </c>
+      <c r="T38" t="n">
         <v>249.7950373096234</v>
-      </c>
-      <c r="T38" t="n">
-        <v>146.1207864356799</v>
       </c>
       <c r="U38" t="n">
         <v>146.1207864356799</v>
       </c>
       <c r="V38" t="n">
-        <v>146.1207864356799</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="W38" t="n">
-        <v>146.1207864356799</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="X38" t="n">
-        <v>146.1207864356799</v>
+        <v>42.4465355617364</v>
       </c>
       <c r="Y38" t="n">
-        <v>111.8852515431599</v>
+        <v>42.4465355617364</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>124.0863893016515</v>
+        <v>88.36182781229004</v>
       </c>
       <c r="C39" t="n">
-        <v>71.70655740291487</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="D39" t="n">
-        <v>71.70655740291487</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="E39" t="n">
-        <v>71.70655740291487</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="F39" t="n">
-        <v>71.70655740291487</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="G39" t="n">
-        <v>27.27793412358369</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H39" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I39" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J39" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K39" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="L39" t="n">
-        <v>36.32207510283096</v>
+        <v>109.8221339507684</v>
       </c>
       <c r="M39" t="n">
-        <v>137.933208384383</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="N39" t="n">
-        <v>239.5443416659351</v>
+        <v>308.9389001792643</v>
       </c>
       <c r="O39" t="n">
-        <v>239.5443416659351</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P39" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R39" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S39" t="n">
-        <v>331.4348910495386</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T39" t="n">
-        <v>331.4348910495386</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U39" t="n">
-        <v>227.760640175595</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="V39" t="n">
-        <v>124.0863893016515</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="W39" t="n">
-        <v>124.0863893016515</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="X39" t="n">
-        <v>124.0863893016515</v>
+        <v>88.36182781229004</v>
       </c>
       <c r="Y39" t="n">
-        <v>124.0863893016515</v>
+        <v>88.36182781229004</v>
       </c>
     </row>
     <row r="40">
@@ -7308,61 +7308,61 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="C40" t="n">
-        <v>8.211000669216329</v>
+        <v>24.89330004913215</v>
       </c>
       <c r="D40" t="n">
-        <v>8.211000669216329</v>
+        <v>24.89330004913215</v>
       </c>
       <c r="E40" t="n">
-        <v>8.211000669216329</v>
+        <v>24.89330004913215</v>
       </c>
       <c r="F40" t="n">
-        <v>8.211000669216329</v>
+        <v>24.89330004913215</v>
       </c>
       <c r="G40" t="n">
-        <v>8.211000669216329</v>
+        <v>24.89330004913215</v>
       </c>
       <c r="H40" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I40" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J40" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K40" t="n">
         <v>78.58979207709835</v>
       </c>
       <c r="L40" t="n">
-        <v>180.2009253586504</v>
+        <v>175.8633247664843</v>
       </c>
       <c r="M40" t="n">
-        <v>245.6633786864016</v>
+        <v>277.4744580480364</v>
       </c>
       <c r="N40" t="n">
-        <v>289.3542293418379</v>
+        <v>379.0855913295884</v>
       </c>
       <c r="O40" t="n">
-        <v>313.6935059767372</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="P40" t="n">
-        <v>403.4248679644878</v>
+        <v>403.4248679644877</v>
       </c>
       <c r="Q40" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R40" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S40" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T40" t="n">
-        <v>306.8757825868728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U40" t="n">
         <v>306.8757825868728</v>
@@ -7371,13 +7371,13 @@
         <v>203.2015317129293</v>
       </c>
       <c r="W40" t="n">
-        <v>203.2015317129293</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="X40" t="n">
-        <v>99.52728083898576</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="Y40" t="n">
-        <v>8.211000669216329</v>
+        <v>99.52728083898575</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>410.5500334608163</v>
+      </c>
+      <c r="C41" t="n">
+        <v>410.5500334608163</v>
+      </c>
+      <c r="D41" t="n">
+        <v>410.5500334608163</v>
+      </c>
+      <c r="E41" t="n">
+        <v>410.5500334608163</v>
+      </c>
+      <c r="F41" t="n">
+        <v>319.2337532910469</v>
+      </c>
+      <c r="G41" t="n">
+        <v>215.5595024171034</v>
+      </c>
+      <c r="H41" t="n">
         <v>111.8852515431599</v>
       </c>
-      <c r="C41" t="n">
-        <v>111.8852515431599</v>
-      </c>
-      <c r="D41" t="n">
-        <v>111.8852515431599</v>
-      </c>
-      <c r="E41" t="n">
-        <v>111.8852515431599</v>
-      </c>
-      <c r="F41" t="n">
-        <v>111.8852515431599</v>
-      </c>
-      <c r="G41" t="n">
-        <v>8.211000669216329</v>
-      </c>
-      <c r="H41" t="n">
-        <v>8.211000669216329</v>
-      </c>
       <c r="I41" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J41" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K41" t="n">
         <v>109.8221339507684</v>
       </c>
       <c r="L41" t="n">
-        <v>207.3277668977123</v>
+        <v>211.4332672323204</v>
       </c>
       <c r="M41" t="n">
-        <v>308.9389001792644</v>
+        <v>308.9389001792643</v>
       </c>
       <c r="N41" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="O41" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="P41" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q41" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R41" t="n">
-        <v>308.9150310743728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S41" t="n">
-        <v>308.9150310743728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T41" t="n">
-        <v>215.5595024171034</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U41" t="n">
-        <v>111.8852515431599</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="V41" t="n">
-        <v>111.8852515431599</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="W41" t="n">
-        <v>111.8852515431599</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="X41" t="n">
-        <v>111.8852515431599</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Y41" t="n">
-        <v>111.8852515431599</v>
+        <v>410.5500334608163</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.211000669216329</v>
+        <v>255.4541981686176</v>
       </c>
       <c r="C42" t="n">
-        <v>8.211000669216329</v>
+        <v>255.4541981686176</v>
       </c>
       <c r="D42" t="n">
-        <v>8.211000669216329</v>
+        <v>255.4541981686176</v>
       </c>
       <c r="E42" t="n">
-        <v>8.211000669216329</v>
+        <v>151.7799472946741</v>
       </c>
       <c r="F42" t="n">
-        <v>8.211000669216329</v>
+        <v>151.7799472946741</v>
       </c>
       <c r="G42" t="n">
-        <v>8.211000669216329</v>
+        <v>62.79706690614864</v>
       </c>
       <c r="H42" t="n">
-        <v>8.211000669216329</v>
+        <v>48.76268478320077</v>
       </c>
       <c r="I42" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J42" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K42" t="n">
-        <v>109.8221339507684</v>
+        <v>105.7166336161602</v>
       </c>
       <c r="L42" t="n">
-        <v>211.4332672323204</v>
+        <v>207.3277668977123</v>
       </c>
       <c r="M42" t="n">
-        <v>211.4332672323204</v>
+        <v>308.9389001792643</v>
       </c>
       <c r="N42" t="n">
-        <v>239.5443416659351</v>
+        <v>308.9389001792643</v>
       </c>
       <c r="O42" t="n">
-        <v>341.1554749474871</v>
+        <v>308.9389001792643</v>
       </c>
       <c r="P42" t="n">
-        <v>341.1554749474871</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R42" t="n">
-        <v>410.5500334608164</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="S42" t="n">
-        <v>306.8757825868728</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="T42" t="n">
-        <v>306.8757825868728</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="U42" t="n">
-        <v>306.8757825868728</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="V42" t="n">
-        <v>203.2015317129293</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="W42" t="n">
-        <v>111.8852515431599</v>
+        <v>359.1284490425611</v>
       </c>
       <c r="X42" t="n">
-        <v>111.8852515431599</v>
+        <v>255.4541981686176</v>
       </c>
       <c r="Y42" t="n">
-        <v>8.211000669216329</v>
+        <v>255.4541981686176</v>
       </c>
     </row>
     <row r="43">
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="C43" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="D43" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="E43" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="F43" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="G43" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="H43" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I43" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J43" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K43" t="n">
         <v>34.92216468437712</v>
@@ -7578,43 +7578,43 @@
         <v>110.9942506148749</v>
       </c>
       <c r="M43" t="n">
-        <v>198.9402497298819</v>
+        <v>198.9402497298818</v>
       </c>
       <c r="N43" t="n">
-        <v>291.389061308103</v>
+        <v>291.3890613081029</v>
       </c>
       <c r="O43" t="n">
         <v>364.486298865787</v>
       </c>
       <c r="P43" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q43" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R43" t="n">
-        <v>410.5500334608164</v>
+        <v>306.8757825868728</v>
       </c>
       <c r="S43" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="T43" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="U43" t="n">
-        <v>410.5500334608164</v>
+        <v>203.2015317129293</v>
       </c>
       <c r="V43" t="n">
-        <v>410.5500334608164</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="W43" t="n">
-        <v>319.2337532910469</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="X43" t="n">
-        <v>215.5595024171034</v>
+        <v>99.52728083898575</v>
       </c>
       <c r="Y43" t="n">
-        <v>111.8852515431599</v>
+        <v>8.211000669216327</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>203.2015317129293</v>
+        <v>205.2407802004292</v>
       </c>
       <c r="C44" t="n">
-        <v>203.2015317129293</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="D44" t="n">
-        <v>203.2015317129293</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="E44" t="n">
-        <v>203.2015317129293</v>
+        <v>111.8852515431599</v>
       </c>
       <c r="F44" t="n">
         <v>111.8852515431599</v>
@@ -7645,55 +7645,55 @@
         <v>111.8852515431599</v>
       </c>
       <c r="I44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J44" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K44" t="n">
-        <v>8.211000669216329</v>
+        <v>16.05657832410924</v>
       </c>
       <c r="L44" t="n">
-        <v>109.8221339507684</v>
+        <v>117.6677116056613</v>
       </c>
       <c r="M44" t="n">
-        <v>211.4332672323204</v>
+        <v>117.6677116056613</v>
       </c>
       <c r="N44" t="n">
-        <v>313.0444005138725</v>
+        <v>219.2788448872133</v>
       </c>
       <c r="O44" t="n">
-        <v>410.5500334608164</v>
+        <v>320.8899781687654</v>
       </c>
       <c r="P44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q44" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R44" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9150310743727</v>
       </c>
       <c r="S44" t="n">
-        <v>410.5500334608164</v>
+        <v>308.9150310743727</v>
       </c>
       <c r="T44" t="n">
-        <v>306.8757825868728</v>
+        <v>308.9150310743727</v>
       </c>
       <c r="U44" t="n">
-        <v>203.2015317129293</v>
+        <v>308.9150310743727</v>
       </c>
       <c r="V44" t="n">
-        <v>203.2015317129293</v>
+        <v>308.9150310743727</v>
       </c>
       <c r="W44" t="n">
-        <v>203.2015317129293</v>
+        <v>308.9150310743727</v>
       </c>
       <c r="X44" t="n">
-        <v>203.2015317129293</v>
+        <v>308.9150310743727</v>
       </c>
       <c r="Y44" t="n">
-        <v>203.2015317129293</v>
+        <v>308.9150310743727</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>99.52728083898576</v>
+        <v>255.4541981686176</v>
       </c>
       <c r="C45" t="n">
-        <v>99.52728083898576</v>
+        <v>175.5064421067214</v>
       </c>
       <c r="D45" t="n">
-        <v>99.52728083898576</v>
+        <v>175.5064421067214</v>
       </c>
       <c r="E45" t="n">
-        <v>99.52728083898576</v>
+        <v>71.83219123277792</v>
       </c>
       <c r="F45" t="n">
-        <v>99.52728083898576</v>
+        <v>71.83219123277792</v>
       </c>
       <c r="G45" t="n">
-        <v>10.54440045046036</v>
+        <v>71.83219123277792</v>
       </c>
       <c r="H45" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="I45" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="J45" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K45" t="n">
-        <v>109.8221339507684</v>
+        <v>36.32207510283092</v>
       </c>
       <c r="L45" t="n">
-        <v>211.4332672323204</v>
+        <v>36.32207510283092</v>
       </c>
       <c r="M45" t="n">
-        <v>211.4332672323204</v>
+        <v>36.32207510283092</v>
       </c>
       <c r="N45" t="n">
-        <v>211.4332672323204</v>
+        <v>137.933208384383</v>
       </c>
       <c r="O45" t="n">
-        <v>239.5443416659351</v>
+        <v>239.544341665935</v>
       </c>
       <c r="P45" t="n">
         <v>341.1554749474871</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R45" t="n">
-        <v>410.5500334608164</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="S45" t="n">
-        <v>410.5500334608164</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="T45" t="n">
-        <v>410.5500334608164</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="U45" t="n">
-        <v>410.5500334608164</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="V45" t="n">
-        <v>410.5500334608164</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="W45" t="n">
-        <v>306.8757825868728</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="X45" t="n">
-        <v>203.2015317129293</v>
+        <v>359.1284490425612</v>
       </c>
       <c r="Y45" t="n">
-        <v>99.52728083898576</v>
+        <v>359.1284490425612</v>
       </c>
     </row>
     <row r="46">
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>306.8757825868728</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="C46" t="n">
-        <v>306.8757825868728</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="D46" t="n">
-        <v>306.8757825868728</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="E46" t="n">
-        <v>306.8757825868728</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="F46" t="n">
-        <v>306.8757825868728</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="G46" t="n">
-        <v>260.1137595262976</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="H46" t="n">
-        <v>156.4395086523541</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="I46" t="n">
-        <v>52.76525777841054</v>
+        <v>52.76525777841056</v>
       </c>
       <c r="J46" t="n">
-        <v>8.211000669216329</v>
+        <v>8.211000669216327</v>
       </c>
       <c r="K46" t="n">
         <v>34.92216468437712</v>
@@ -7824,34 +7824,34 @@
         <v>364.486298865787</v>
       </c>
       <c r="P46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="Q46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="R46" t="n">
-        <v>410.5500334608164</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="S46" t="n">
-        <v>306.8757825868728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="T46" t="n">
-        <v>306.8757825868728</v>
+        <v>410.5500334608163</v>
       </c>
       <c r="U46" t="n">
-        <v>306.8757825868728</v>
+        <v>363.7880104002411</v>
       </c>
       <c r="V46" t="n">
-        <v>306.8757825868728</v>
+        <v>363.7880104002411</v>
       </c>
       <c r="W46" t="n">
-        <v>306.8757825868728</v>
+        <v>260.1137595262976</v>
       </c>
       <c r="X46" t="n">
-        <v>306.8757825868728</v>
+        <v>156.4395086523541</v>
       </c>
       <c r="Y46" t="n">
-        <v>306.8757825868728</v>
+        <v>52.76525777841056</v>
       </c>
     </row>
   </sheetData>
@@ -9643,7 +9643,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>243.6912408840205</v>
+        <v>334.2569533002336</v>
       </c>
       <c r="M23" t="n">
         <v>332.9837415924768</v>
@@ -9652,10 +9652,10 @@
         <v>332.050571961795</v>
       </c>
       <c r="O23" t="n">
-        <v>332.7357197868909</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
         <v>212.3149906599047</v>
@@ -9722,10 +9722,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>166.949404460293</v>
       </c>
       <c r="M24" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>233.9792204485374</v>
@@ -9734,7 +9734,7 @@
         <v>245.2337528096485</v>
       </c>
       <c r="P24" t="n">
-        <v>162.369432094749</v>
+        <v>236.6119157795343</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9883,13 +9883,13 @@
         <v>338.4039233351913</v>
       </c>
       <c r="M26" t="n">
-        <v>328.8367715575191</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N26" t="n">
-        <v>332.050571961795</v>
+        <v>327.9036019268373</v>
       </c>
       <c r="O26" t="n">
-        <v>332.7357197868909</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P26" t="n">
         <v>231.2329957552695</v>
@@ -9959,22 +9959,22 @@
         <v>240.4789473395631</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M27" t="n">
-        <v>244.7715422872224</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>229.8322504135797</v>
+        <v>159.7367367637521</v>
       </c>
       <c r="O27" t="n">
-        <v>245.2337528096485</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>236.6119157795343</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10114,22 +10114,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>322.7273594101846</v>
       </c>
       <c r="L29" t="n">
-        <v>243.6912408840205</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M29" t="n">
         <v>332.9837415924768</v>
       </c>
       <c r="N29" t="n">
-        <v>332.050571961795</v>
+        <v>327.9036019268373</v>
       </c>
       <c r="O29" t="n">
-        <v>332.7357197868909</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10196,19 +10196,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>241.1918881450783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>244.7715422872224</v>
       </c>
       <c r="N30" t="n">
-        <v>229.8322504135797</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O30" t="n">
         <v>245.2337528096485</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>232.4649457445766</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10354,19 +10354,19 @@
         <v>322.7273594101846</v>
       </c>
       <c r="L32" t="n">
-        <v>338.4039233351913</v>
+        <v>334.2569533002336</v>
       </c>
       <c r="M32" t="n">
         <v>332.9837415924768</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>332.050571961795</v>
       </c>
       <c r="O32" t="n">
-        <v>238.02303733572</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>236.3319773046054</v>
+        <v>240.4789473395631</v>
       </c>
       <c r="L33" t="n">
         <v>241.1918881450783</v>
@@ -10439,7 +10439,7 @@
         <v>244.7715422872224</v>
       </c>
       <c r="N33" t="n">
-        <v>233.9792204485374</v>
+        <v>229.8322504135796</v>
       </c>
       <c r="O33" t="n">
         <v>142.5962444444444</v>
@@ -10588,19 +10588,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>228.0146769590138</v>
       </c>
       <c r="L35" t="n">
         <v>338.4039233351913</v>
       </c>
       <c r="M35" t="n">
-        <v>238.271059141306</v>
+        <v>332.9837415924768</v>
       </c>
       <c r="N35" t="n">
         <v>332.050571961795</v>
       </c>
       <c r="O35" t="n">
-        <v>332.7357197868909</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10667,19 +10667,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>240.4789473395631</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N36" t="n">
-        <v>233.9792204485374</v>
+        <v>159.7367367637521</v>
       </c>
       <c r="O36" t="n">
-        <v>170.9912691248632</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P36" t="n">
         <v>236.6119157795343</v>
@@ -10828,7 +10828,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>338.4039233351913</v>
+        <v>243.6912408840205</v>
       </c>
       <c r="M38" t="n">
         <v>332.9837415924768</v>
@@ -10837,10 +10837,10 @@
         <v>332.050571961795</v>
       </c>
       <c r="O38" t="n">
-        <v>328.5887497519331</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10907,22 +10907,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>166.949404460293</v>
+        <v>241.1918881450783</v>
       </c>
       <c r="M39" t="n">
         <v>244.7715422872224</v>
       </c>
       <c r="N39" t="n">
-        <v>233.9792204485374</v>
+        <v>229.8322504135796</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P39" t="n">
-        <v>236.6119157795343</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,10 +11065,10 @@
         <v>322.7273594101846</v>
       </c>
       <c r="L41" t="n">
-        <v>334.2569533002336</v>
+        <v>338.4039233351913</v>
       </c>
       <c r="M41" t="n">
-        <v>332.9837415924768</v>
+        <v>328.8367715575191</v>
       </c>
       <c r="N41" t="n">
         <v>332.050571961795</v>
@@ -11141,25 +11141,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>240.4789473395631</v>
+        <v>236.3319773046053</v>
       </c>
       <c r="L42" t="n">
         <v>241.1918881450783</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>244.7715422872224</v>
       </c>
       <c r="N42" t="n">
-        <v>159.7367367637521</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>245.2337528096485</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>236.6119157795343</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>228.0146769590138</v>
       </c>
       <c r="L44" t="n">
         <v>338.4039233351913</v>
       </c>
       <c r="M44" t="n">
-        <v>332.9837415924768</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
         <v>332.050571961795</v>
       </c>
       <c r="O44" t="n">
-        <v>328.5887497519331</v>
+        <v>332.7357197868908</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,19 +11378,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>240.4789473395631</v>
+        <v>166.2364636547778</v>
       </c>
       <c r="L45" t="n">
-        <v>241.1918881450783</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>233.9792204485374</v>
       </c>
       <c r="O45" t="n">
-        <v>170.9912691248632</v>
+        <v>245.2337528096485</v>
       </c>
       <c r="P45" t="n">
         <v>236.6119157795343</v>
@@ -24214,19 +24214,19 @@
         <v>263.3792473285204</v>
       </c>
       <c r="E23" t="n">
-        <v>187.9890674148951</v>
+        <v>290.6265757800992</v>
       </c>
       <c r="F23" t="n">
         <v>212.9347430843447</v>
       </c>
       <c r="G23" t="n">
-        <v>323.9989432229725</v>
+        <v>221.3614348577684</v>
       </c>
       <c r="H23" t="n">
-        <v>157.7678904555328</v>
+        <v>145.5334994584005</v>
       </c>
       <c r="I23" t="n">
-        <v>16.53458691303919</v>
+        <v>87.33430155915859</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>58.56532364898706</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>117.7162752940827</v>
@@ -24284,13 +24284,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>75.22938935770472</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>81.40470469615312</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>56.14127127247613</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -24338,7 +24338,7 @@
         <v>80.3793768116752</v>
       </c>
       <c r="T24" t="n">
-        <v>6.223426037454885</v>
+        <v>108.860934402659</v>
       </c>
       <c r="U24" t="n">
         <v>134.6375877888122</v>
@@ -24353,7 +24353,7 @@
         <v>114.4691909113149</v>
       </c>
       <c r="Y24" t="n">
-        <v>70.77415559945986</v>
+        <v>68.62947001563747</v>
       </c>
     </row>
     <row r="25">
@@ -24366,7 +24366,7 @@
         <v>88.52818588977468</v>
       </c>
       <c r="C25" t="n">
-        <v>75.94302680646521</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>57.31167872604973</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>85.98959708500686</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>132.7128037448096</v>
+        <v>30.07529537960555</v>
       </c>
       <c r="T25" t="n">
         <v>136.6417951361189</v>
@@ -24423,16 +24423,16 @@
         <v>195.0152350643283</v>
       </c>
       <c r="V25" t="n">
-        <v>58.19634066646128</v>
+        <v>160.8338490316654</v>
       </c>
       <c r="W25" t="n">
-        <v>92.58169567922428</v>
+        <v>195.2192040444284</v>
       </c>
       <c r="X25" t="n">
-        <v>31.76835273167043</v>
+        <v>31.76835273167045</v>
       </c>
       <c r="Y25" t="n">
-        <v>36.87774169186044</v>
+        <v>96.1728572181284</v>
       </c>
     </row>
     <row r="26">
@@ -24442,13 +24442,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>230.845867719706</v>
+        <v>243.0802587168383</v>
       </c>
       <c r="C26" t="n">
-        <v>316.022426192437</v>
+        <v>213.3849178272329</v>
       </c>
       <c r="D26" t="n">
-        <v>202.7950676769083</v>
+        <v>305.4325760421124</v>
       </c>
       <c r="E26" t="n">
         <v>332.6799044936913</v>
@@ -24463,7 +24463,7 @@
         <v>290.2243365371966</v>
       </c>
       <c r="I26" t="n">
-        <v>161.2254239918354</v>
+        <v>58.58791562663133</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S26" t="n">
         <v>159.7696040076748</v>
       </c>
       <c r="T26" t="n">
-        <v>173.8453839855608</v>
+        <v>173.8453839855609</v>
       </c>
       <c r="U26" t="n">
-        <v>202.095187329266</v>
+        <v>99.45767896406191</v>
       </c>
       <c r="V26" t="n">
         <v>278.5017928915644</v>
@@ -24511,7 +24511,7 @@
         <v>320.4806350998985</v>
       </c>
       <c r="Y26" t="n">
-        <v>244.5654997067864</v>
+        <v>336.9874730774831</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14.64520970609271</v>
+        <v>14.64520970609276</v>
       </c>
       <c r="C27" t="n">
         <v>123.4580334097452</v>
       </c>
       <c r="D27" t="n">
-        <v>98.19459998606823</v>
+        <v>33.39319311027718</v>
       </c>
       <c r="E27" t="n">
-        <v>108.3946148768304</v>
+        <v>5.757106511626361</v>
       </c>
       <c r="F27" t="n">
-        <v>95.81874681481335</v>
+        <v>95.81874681481338</v>
       </c>
       <c r="G27" t="n">
-        <v>88.09305158464011</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>62.98497865792596</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>50.90736857407261</v>
+        <v>50.90736857407263</v>
       </c>
       <c r="S27" t="n">
         <v>122.4327055252673</v>
       </c>
       <c r="T27" t="n">
-        <v>48.27675475104698</v>
+        <v>150.9142631162511</v>
       </c>
       <c r="U27" t="n">
         <v>176.6909165024043</v>
       </c>
       <c r="V27" t="n">
-        <v>93.64064176834941</v>
+        <v>183.5501215708548</v>
       </c>
       <c r="W27" t="n">
         <v>202.4445175823491</v>
       </c>
       <c r="X27" t="n">
-        <v>156.5225196249069</v>
+        <v>156.522519624907</v>
       </c>
       <c r="Y27" t="n">
-        <v>156.4322301987338</v>
+        <v>156.4322301987339</v>
       </c>
     </row>
     <row r="28">
@@ -24606,25 +24606,25 @@
         <v>117.9963555200573</v>
       </c>
       <c r="D28" t="n">
-        <v>99.36500743964183</v>
+        <v>40.41945644748858</v>
       </c>
       <c r="E28" t="n">
-        <v>97.18349706799864</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>96.17058244436075</v>
       </c>
       <c r="G28" t="n">
-        <v>16.10300541468413</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H28" t="n">
-        <v>112.976706928869</v>
+        <v>112.9767069288691</v>
       </c>
       <c r="I28" t="n">
-        <v>106.2000093486878</v>
+        <v>3.562500983483702</v>
       </c>
       <c r="J28" t="n">
-        <v>44.10871453810226</v>
+        <v>44.10871453810227</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>128.042925798599</v>
       </c>
       <c r="S28" t="n">
-        <v>174.7661324584017</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T28" t="n">
-        <v>76.05761548450687</v>
+        <v>178.695123849711</v>
       </c>
       <c r="U28" t="n">
         <v>237.0685637779204</v>
       </c>
       <c r="V28" t="n">
-        <v>202.8871777452575</v>
+        <v>100.2496693800534</v>
       </c>
       <c r="W28" t="n">
         <v>237.2725327580205</v>
       </c>
       <c r="X28" t="n">
-        <v>116.5007241946754</v>
+        <v>176.4591898104667</v>
       </c>
       <c r="Y28" t="n">
         <v>169.3341877735243</v>
@@ -24685,7 +24685,7 @@
         <v>316.022426192437</v>
       </c>
       <c r="D29" t="n">
-        <v>215.0294586740407</v>
+        <v>202.7950676769083</v>
       </c>
       <c r="E29" t="n">
         <v>332.6799044936913</v>
@@ -24697,10 +24697,10 @@
         <v>366.0522719365645</v>
       </c>
       <c r="H29" t="n">
-        <v>290.2243365371966</v>
+        <v>187.5868281719925</v>
       </c>
       <c r="I29" t="n">
-        <v>161.2254239918354</v>
+        <v>70.82230662376369</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>100.6186523625792</v>
       </c>
       <c r="S29" t="n">
-        <v>57.13209564247072</v>
+        <v>57.13209564247076</v>
       </c>
       <c r="T29" t="n">
-        <v>173.8453839855608</v>
+        <v>173.8453839855609</v>
       </c>
       <c r="U29" t="n">
-        <v>99.45767896406187</v>
+        <v>202.095187329266</v>
       </c>
       <c r="V29" t="n">
-        <v>175.8642845263603</v>
+        <v>278.5017928915644</v>
       </c>
       <c r="W29" t="n">
         <v>299.9905031388425</v>
@@ -24761,25 +24761,25 @@
         <v>117.2827180712968</v>
       </c>
       <c r="C30" t="n">
-        <v>123.4580334097452</v>
+        <v>33.05491604167352</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>98.19459998606825</v>
       </c>
       <c r="E30" t="n">
         <v>108.3946148768304</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>95.81874681481338</v>
       </c>
       <c r="G30" t="n">
-        <v>88.09305158464011</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H30" t="n">
-        <v>62.98497865792594</v>
+        <v>62.98497865792596</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>40.14616727284457</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,7 +24806,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>50.90736857407263</v>
       </c>
       <c r="S30" t="n">
         <v>122.4327055252673</v>
@@ -24818,16 +24818,16 @@
         <v>176.6909165024043</v>
       </c>
       <c r="V30" t="n">
-        <v>172.9388701201736</v>
+        <v>80.91261320565069</v>
       </c>
       <c r="W30" t="n">
-        <v>202.4445175823491</v>
+        <v>99.80700921714502</v>
       </c>
       <c r="X30" t="n">
-        <v>53.88501125970285</v>
+        <v>156.522519624907</v>
       </c>
       <c r="Y30" t="n">
-        <v>156.4322301987338</v>
+        <v>53.79472183352978</v>
       </c>
     </row>
     <row r="31">
@@ -24837,31 +24837,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>27.94400623816267</v>
+        <v>130.5815146033668</v>
       </c>
       <c r="C31" t="n">
-        <v>117.9963555200573</v>
+        <v>27.59323815198562</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>99.36500743964186</v>
       </c>
       <c r="E31" t="n">
-        <v>97.18349706799864</v>
+        <v>97.18349706799867</v>
       </c>
       <c r="F31" t="n">
-        <v>96.17058244436072</v>
+        <v>96.17058244436075</v>
       </c>
       <c r="G31" t="n">
-        <v>118.7405137798882</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H31" t="n">
-        <v>112.976706928869</v>
+        <v>112.9767069288691</v>
       </c>
       <c r="I31" t="n">
         <v>106.2000093486878</v>
       </c>
       <c r="J31" t="n">
-        <v>44.10871453810226</v>
+        <v>44.10871453810227</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>36.91157767312388</v>
       </c>
       <c r="R31" t="n">
-        <v>71.27888517808879</v>
+        <v>128.042925798599</v>
       </c>
       <c r="S31" t="n">
-        <v>174.7661324584017</v>
+        <v>72.12862409319767</v>
       </c>
       <c r="T31" t="n">
-        <v>178.695123849711</v>
+        <v>76.05761548450691</v>
       </c>
       <c r="U31" t="n">
-        <v>237.0685637779204</v>
+        <v>134.4310554127163</v>
       </c>
       <c r="V31" t="n">
         <v>202.8871777452575</v>
@@ -24903,10 +24903,10 @@
         <v>237.2725327580205</v>
       </c>
       <c r="X31" t="n">
-        <v>176.4591898104666</v>
+        <v>176.4591898104667</v>
       </c>
       <c r="Y31" t="n">
-        <v>66.69667940832016</v>
+        <v>169.3341877735243</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>271.9137116543347</v>
       </c>
       <c r="D32" t="n">
-        <v>261.3238615040102</v>
+        <v>158.6863531388061</v>
       </c>
       <c r="E32" t="n">
         <v>288.571189955589</v>
       </c>
       <c r="F32" t="n">
-        <v>210.8793572598346</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G32" t="n">
         <v>321.9435573984623</v>
       </c>
       <c r="H32" t="n">
-        <v>246.1156219990944</v>
+        <v>212.2224424554995</v>
       </c>
       <c r="I32" t="n">
-        <v>14.47920108852904</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>115.6608894695726</v>
+        <v>13.02338110436848</v>
       </c>
       <c r="T32" t="n">
         <v>129.7366694474586</v>
@@ -24976,13 +24976,13 @@
         <v>157.9864727911637</v>
       </c>
       <c r="V32" t="n">
-        <v>234.3930783534621</v>
+        <v>131.7555699882581</v>
       </c>
       <c r="W32" t="n">
-        <v>221.9886090571454</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X32" t="n">
-        <v>173.7344121965922</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y32" t="n">
         <v>292.8787585393808</v>
@@ -24998,7 +24998,7 @@
         <v>73.17400353319456</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D33" t="n">
         <v>54.08588544796598</v>
@@ -25046,25 +25046,25 @@
         <v>6.798654035970358</v>
       </c>
       <c r="S33" t="n">
-        <v>8.617021172070039</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>4.168040212944732</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U33" t="n">
-        <v>132.582201964302</v>
+        <v>29.94469359909796</v>
       </c>
       <c r="V33" t="n">
         <v>139.4414070327525</v>
       </c>
       <c r="W33" t="n">
-        <v>158.3358030442468</v>
+        <v>87.60350534467389</v>
       </c>
       <c r="X33" t="n">
-        <v>112.4138050868047</v>
+        <v>9.776296721600616</v>
       </c>
       <c r="Y33" t="n">
-        <v>9.686007295427487</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="34">
@@ -25077,25 +25077,25 @@
         <v>86.47280006526452</v>
       </c>
       <c r="C34" t="n">
-        <v>73.88764098195506</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>55.25629290153958</v>
       </c>
       <c r="E34" t="n">
-        <v>53.0747825298964</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>52.06186790625847</v>
       </c>
       <c r="G34" t="n">
-        <v>74.63179924178598</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>68.8679923907668</v>
       </c>
       <c r="I34" t="n">
-        <v>62.09129481058551</v>
+        <v>51.94159472623979</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>28.01990955509538</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T34" t="n">
-        <v>31.94890094640462</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U34" t="n">
-        <v>90.32234087461401</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V34" t="n">
-        <v>152.3095570995802</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W34" t="n">
-        <v>193.1638182199182</v>
+        <v>90.52630985471414</v>
       </c>
       <c r="X34" t="n">
         <v>132.3504752723644</v>
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>186.7371531816037</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C35" t="n">
         <v>271.9137116543347</v>
@@ -25168,10 +25168,10 @@
         <v>313.5168656250387</v>
       </c>
       <c r="G35" t="n">
-        <v>321.9435573984623</v>
+        <v>219.3060490332582</v>
       </c>
       <c r="H35" t="n">
-        <v>155.7125046310226</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I35" t="n">
         <v>117.1167094537331</v>
@@ -25204,25 +25204,25 @@
         <v>56.50993782447691</v>
       </c>
       <c r="S35" t="n">
-        <v>115.6608894695726</v>
+        <v>25.25777210150085</v>
       </c>
       <c r="T35" t="n">
-        <v>129.7366694474586</v>
+        <v>27.0991610822545</v>
       </c>
       <c r="U35" t="n">
-        <v>157.9864727911637</v>
+        <v>55.34896442595964</v>
       </c>
       <c r="V35" t="n">
         <v>234.3930783534621</v>
       </c>
       <c r="W35" t="n">
-        <v>153.2442802355361</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X35" t="n">
         <v>276.3719205617963</v>
       </c>
       <c r="Y35" t="n">
-        <v>190.2412501741767</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C36" t="n">
-        <v>52.11566590785017</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>54.08588544796598</v>
       </c>
       <c r="E36" t="n">
-        <v>64.28590033872817</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>51.7100322767111</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>106.8055485781488</v>
+        <v>56.37481417076621</v>
       </c>
       <c r="U36" t="n">
-        <v>29.94469359909795</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V36" t="n">
         <v>139.4414070327525</v>
@@ -25298,10 +25298,10 @@
         <v>158.3358030442468</v>
       </c>
       <c r="X36" t="n">
-        <v>112.4138050868047</v>
+        <v>9.776296721600616</v>
       </c>
       <c r="Y36" t="n">
-        <v>112.3235156606316</v>
+        <v>9.686007295427501</v>
       </c>
     </row>
     <row r="37">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C37" t="n">
         <v>73.88764098195506</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E37" t="n">
         <v>53.0747825298964</v>
@@ -25326,7 +25326,7 @@
         <v>52.06186790625847</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H37" t="n">
         <v>68.8679923907668</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>83.93421126049671</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>130.6574179202995</v>
+        <v>28.0199095550954</v>
       </c>
       <c r="T37" t="n">
-        <v>31.94890094640462</v>
+        <v>31.94890094640463</v>
       </c>
       <c r="U37" t="n">
         <v>192.9598492398181</v>
@@ -25377,10 +25377,10 @@
         <v>193.1638182199182</v>
       </c>
       <c r="X37" t="n">
-        <v>132.3504752723644</v>
+        <v>29.71296690716029</v>
       </c>
       <c r="Y37" t="n">
-        <v>45.90823134553219</v>
+        <v>118.756567127847</v>
       </c>
     </row>
     <row r="38">
@@ -25402,7 +25402,7 @@
         <v>288.571189955589</v>
       </c>
       <c r="F38" t="n">
-        <v>210.8793572598346</v>
+        <v>313.5168656250387</v>
       </c>
       <c r="G38" t="n">
         <v>321.9435573984623</v>
@@ -25411,7 +25411,7 @@
         <v>246.1156219990944</v>
       </c>
       <c r="I38" t="n">
-        <v>117.1167094537331</v>
+        <v>83.22352991013827</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>13.02338110436847</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T38" t="n">
-        <v>27.09916108225448</v>
+        <v>27.0991610822545</v>
       </c>
       <c r="U38" t="n">
-        <v>157.9864727911637</v>
+        <v>55.34896442595964</v>
       </c>
       <c r="V38" t="n">
-        <v>234.3930783534621</v>
+        <v>131.7555699882581</v>
       </c>
       <c r="W38" t="n">
         <v>255.8817886007402</v>
@@ -25459,7 +25459,7 @@
         <v>276.3719205617963</v>
       </c>
       <c r="Y38" t="n">
-        <v>258.985578995786</v>
+        <v>292.8787585393808</v>
       </c>
     </row>
     <row r="39">
@@ -25472,7 +25472,7 @@
         <v>73.17400353319456</v>
       </c>
       <c r="C39" t="n">
-        <v>27.49328529189371</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>54.08588544796598</v>
@@ -25484,10 +25484,10 @@
         <v>51.7100322767111</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -25520,22 +25520,22 @@
         <v>6.798654035970358</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T39" t="n">
         <v>106.8055485781488</v>
       </c>
       <c r="U39" t="n">
-        <v>29.94469359909795</v>
+        <v>29.94469359909796</v>
       </c>
       <c r="V39" t="n">
-        <v>36.8038986675484</v>
+        <v>36.80389866754841</v>
       </c>
       <c r="W39" t="n">
-        <v>158.3358030442468</v>
+        <v>55.69829467904275</v>
       </c>
       <c r="X39" t="n">
-        <v>112.4138050868047</v>
+        <v>101.360006590376</v>
       </c>
       <c r="Y39" t="n">
         <v>112.3235156606316</v>
@@ -25551,7 +25551,7 @@
         <v>86.47280006526452</v>
       </c>
       <c r="C40" t="n">
-        <v>73.88764098195506</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>55.25629290153958</v>
@@ -25566,7 +25566,7 @@
         <v>74.63179924178598</v>
       </c>
       <c r="H40" t="n">
-        <v>68.8679923907668</v>
+        <v>52.35251600465013</v>
       </c>
       <c r="I40" t="n">
         <v>62.09129481058551</v>
@@ -25602,22 +25602,22 @@
         <v>130.6574179202995</v>
       </c>
       <c r="T40" t="n">
-        <v>31.94890094640462</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U40" t="n">
-        <v>192.9598492398181</v>
+        <v>90.32234087461403</v>
       </c>
       <c r="V40" t="n">
-        <v>56.14095484195113</v>
+        <v>56.14095484195114</v>
       </c>
       <c r="W40" t="n">
-        <v>193.1638182199182</v>
+        <v>90.52630985471414</v>
       </c>
       <c r="X40" t="n">
-        <v>29.71296690716028</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y40" t="n">
-        <v>34.82235586735028</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>333.4833760849101</v>
       </c>
       <c r="C41" t="n">
-        <v>316.022426192437</v>
+        <v>316.0224261924371</v>
       </c>
       <c r="D41" t="n">
         <v>305.4325760421125</v>
@@ -25639,16 +25639,16 @@
         <v>332.6799044936913</v>
       </c>
       <c r="F41" t="n">
-        <v>357.625580163141</v>
+        <v>267.2224627950692</v>
       </c>
       <c r="G41" t="n">
         <v>263.4147635713605</v>
       </c>
       <c r="H41" t="n">
-        <v>290.2243365371967</v>
+        <v>187.5868281719926</v>
       </c>
       <c r="I41" t="n">
-        <v>161.2254239918354</v>
+        <v>58.58791562663136</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>100.6186523625792</v>
       </c>
       <c r="S41" t="n">
         <v>159.7696040076748</v>
       </c>
       <c r="T41" t="n">
-        <v>81.42341061486417</v>
+        <v>173.8453839855609</v>
       </c>
       <c r="U41" t="n">
-        <v>99.4576789640619</v>
+        <v>202.095187329266</v>
       </c>
       <c r="V41" t="n">
         <v>278.5017928915644</v>
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>117.2827180712968</v>
+        <v>117.2827180712969</v>
       </c>
       <c r="C42" t="n">
-        <v>123.4580334097452</v>
+        <v>123.4580334097453</v>
       </c>
       <c r="D42" t="n">
-        <v>98.19459998606825</v>
+        <v>98.19459998606827</v>
       </c>
       <c r="E42" t="n">
-        <v>108.3946148768304</v>
+        <v>5.757106511626375</v>
       </c>
       <c r="F42" t="n">
-        <v>95.81874681481338</v>
+        <v>95.81874681481339</v>
       </c>
       <c r="G42" t="n">
-        <v>88.09305158464014</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>62.98497865792596</v>
+        <v>49.09094035620758</v>
       </c>
       <c r="I42" t="n">
-        <v>40.14616727284458</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>50.90736857407263</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>19.79519716006322</v>
+        <v>122.4327055252673</v>
       </c>
       <c r="T42" t="n">
         <v>150.9142631162511</v>
@@ -25766,16 +25766,16 @@
         <v>176.6909165024043</v>
       </c>
       <c r="V42" t="n">
-        <v>80.91261320565067</v>
+        <v>183.5501215708548</v>
       </c>
       <c r="W42" t="n">
-        <v>112.0414002142774</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X42" t="n">
-        <v>156.522519624907</v>
+        <v>53.88501125970289</v>
       </c>
       <c r="Y42" t="n">
-        <v>53.79472183352976</v>
+        <v>156.4322301987339</v>
       </c>
     </row>
     <row r="43">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27.9440062381627</v>
+        <v>130.5815146033668</v>
       </c>
       <c r="C43" t="n">
         <v>117.9963555200573</v>
       </c>
       <c r="D43" t="n">
-        <v>99.36500743964186</v>
+        <v>99.36500743964187</v>
       </c>
       <c r="E43" t="n">
-        <v>97.18349706799867</v>
+        <v>97.18349706799869</v>
       </c>
       <c r="F43" t="n">
-        <v>96.17058244436075</v>
+        <v>96.17058244436076</v>
       </c>
       <c r="G43" t="n">
         <v>118.7405137798883</v>
@@ -25809,7 +25809,7 @@
         <v>106.2000093486878</v>
       </c>
       <c r="J43" t="n">
-        <v>44.10871453810228</v>
+        <v>44.10871453810229</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.91157767312389</v>
+        <v>36.9115776731239</v>
       </c>
       <c r="R43" t="n">
-        <v>128.042925798599</v>
+        <v>25.40541743339493</v>
       </c>
       <c r="S43" t="n">
-        <v>174.7661324584018</v>
+        <v>72.1286240931977</v>
       </c>
       <c r="T43" t="n">
         <v>178.695123849711</v>
@@ -25845,16 +25845,16 @@
         <v>237.0685637779204</v>
       </c>
       <c r="V43" t="n">
-        <v>202.8871777452575</v>
+        <v>100.2496693800534</v>
       </c>
       <c r="W43" t="n">
-        <v>146.8694153899487</v>
+        <v>237.2725327580205</v>
       </c>
       <c r="X43" t="n">
-        <v>73.82168144526256</v>
+        <v>176.4591898104667</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.69667940832019</v>
+        <v>78.9310704054526</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>333.48337608491</v>
+        <v>230.845867719706</v>
       </c>
       <c r="C44" t="n">
-        <v>316.022426192437</v>
+        <v>223.6004528217405</v>
       </c>
       <c r="D44" t="n">
-        <v>305.4325760421124</v>
+        <v>305.4325760421125</v>
       </c>
       <c r="E44" t="n">
         <v>332.6799044936913</v>
       </c>
       <c r="F44" t="n">
-        <v>267.2224627950692</v>
+        <v>357.625580163141</v>
       </c>
       <c r="G44" t="n">
-        <v>366.0522719365645</v>
+        <v>366.0522719365646</v>
       </c>
       <c r="H44" t="n">
-        <v>290.2243365371966</v>
+        <v>290.2243365371967</v>
       </c>
       <c r="I44" t="n">
-        <v>58.58791562663131</v>
+        <v>58.58791562663133</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>100.6186523625792</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>159.7696040076748</v>
       </c>
       <c r="T44" t="n">
-        <v>71.20787562035676</v>
+        <v>173.8453839855609</v>
       </c>
       <c r="U44" t="n">
-        <v>99.4576789640619</v>
+        <v>202.095187329266</v>
       </c>
       <c r="V44" t="n">
         <v>278.5017928915644</v>
@@ -25930,7 +25930,7 @@
         <v>299.9905031388425</v>
       </c>
       <c r="X44" t="n">
-        <v>320.4806350998985</v>
+        <v>320.4806350998986</v>
       </c>
       <c r="Y44" t="n">
         <v>336.9874730774831</v>
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>117.2827180712968</v>
+        <v>14.64520970609276</v>
       </c>
       <c r="C45" t="n">
-        <v>123.4580334097452</v>
+        <v>44.30975490846801</v>
       </c>
       <c r="D45" t="n">
         <v>98.19459998606825</v>
       </c>
       <c r="E45" t="n">
-        <v>108.3946148768304</v>
+        <v>5.757106511626361</v>
       </c>
       <c r="F45" t="n">
         <v>95.81874681481338</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>88.09305158464014</v>
       </c>
       <c r="H45" t="n">
-        <v>60.67491287449437</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>40.14616727284457</v>
+        <v>40.14616727284459</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>50.90736857407263</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>122.4327055252673</v>
@@ -26006,13 +26006,13 @@
         <v>183.5501215708548</v>
       </c>
       <c r="W45" t="n">
-        <v>99.80700921714501</v>
+        <v>202.4445175823491</v>
       </c>
       <c r="X45" t="n">
-        <v>53.88501125970288</v>
+        <v>156.522519624907</v>
       </c>
       <c r="Y45" t="n">
-        <v>53.79472183352976</v>
+        <v>156.4322301987339</v>
       </c>
     </row>
     <row r="46">
@@ -26037,13 +26037,13 @@
         <v>96.17058244436075</v>
       </c>
       <c r="G46" t="n">
-        <v>72.44611094991876</v>
+        <v>118.7405137798883</v>
       </c>
       <c r="H46" t="n">
-        <v>10.33919856366498</v>
+        <v>112.9767069288691</v>
       </c>
       <c r="I46" t="n">
-        <v>3.562500983483687</v>
+        <v>106.2000093486878</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.91157767312388</v>
+        <v>36.91157767312389</v>
       </c>
       <c r="R46" t="n">
         <v>128.042925798599</v>
       </c>
       <c r="S46" t="n">
-        <v>72.12862409319766</v>
+        <v>174.7661324584018</v>
       </c>
       <c r="T46" t="n">
         <v>178.695123849711</v>
       </c>
       <c r="U46" t="n">
-        <v>237.0685637779204</v>
+        <v>190.7741609479509</v>
       </c>
       <c r="V46" t="n">
         <v>202.8871777452575</v>
       </c>
       <c r="W46" t="n">
-        <v>237.2725327580205</v>
+        <v>134.6350243928164</v>
       </c>
       <c r="X46" t="n">
-        <v>176.4591898104667</v>
+        <v>73.82168144526257</v>
       </c>
       <c r="Y46" t="n">
-        <v>169.3341877735243</v>
+        <v>66.69667940832021</v>
       </c>
     </row>
   </sheetData>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>533966.1094653794</v>
+        <v>533966.1094653795</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>451424.1417292851</v>
+        <v>451424.141729285</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>537896.0482695594</v>
+        <v>537896.0482695592</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>451424.1417292849</v>
+        <v>451424.141729285</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>451424.141729285</v>
+        <v>451424.1417292848</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>757830.6133132605</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132607</v>
+        <v>757830.6133132603</v>
       </c>
       <c r="D2" t="n">
         <v>757830.6133132604</v>
@@ -26334,28 +26334,28 @@
         <v>402242.4030344651</v>
       </c>
       <c r="I2" t="n">
-        <v>456034.9305491857</v>
+        <v>456034.9305491858</v>
       </c>
       <c r="J2" t="n">
-        <v>363487.8758147773</v>
+        <v>363487.8758147772</v>
       </c>
       <c r="K2" t="n">
-        <v>363487.8758147774</v>
+        <v>363487.8758147772</v>
       </c>
       <c r="L2" t="n">
-        <v>460441.2255720536</v>
+        <v>460441.2255720542</v>
       </c>
       <c r="M2" t="n">
-        <v>460441.2255720538</v>
+        <v>460441.2255720543</v>
       </c>
       <c r="N2" t="n">
-        <v>460441.2255720536</v>
+        <v>460441.2255720541</v>
       </c>
       <c r="O2" t="n">
+        <v>363487.875814777</v>
+      </c>
+      <c r="P2" t="n">
         <v>363487.8758147771</v>
-      </c>
-      <c r="P2" t="n">
-        <v>363487.875814777</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>68929.6346013555</v>
+        <v>68929.63460135552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4113.400832374595</v>
+        <v>4113.400832374583</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>27293.46886198344</v>
+        <v>27293.46886198343</v>
       </c>
       <c r="J3" t="n">
-        <v>35286.97163048182</v>
+        <v>35286.97163048184</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26438,7 +26438,7 @@
         <v>227610.5198536342</v>
       </c>
       <c r="I4" t="n">
-        <v>256505.3216889294</v>
+        <v>256505.3216889293</v>
       </c>
       <c r="J4" t="n">
         <v>199399.5792205975</v>
@@ -26456,7 +26456,7 @@
         <v>259224.2061476247</v>
       </c>
       <c r="O4" t="n">
-        <v>199399.5792205975</v>
+        <v>199399.5792205974</v>
       </c>
       <c r="P4" t="n">
         <v>199399.5792205975</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>277178.3930408676</v>
+        <v>277134.2572621864</v>
       </c>
       <c r="C6" t="n">
-        <v>277178.3930408679</v>
+        <v>277134.2572621863</v>
       </c>
       <c r="D6" t="n">
-        <v>277178.3930408675</v>
+        <v>277134.2572621864</v>
       </c>
       <c r="E6" t="n">
-        <v>94188.88541250242</v>
+        <v>84232.91574386363</v>
       </c>
       <c r="F6" t="n">
-        <v>163118.5200138579</v>
+        <v>153162.5503452192</v>
       </c>
       <c r="G6" t="n">
-        <v>162842.6636661084</v>
+        <v>153188.0357177301</v>
       </c>
       <c r="H6" t="n">
-        <v>166956.064498483</v>
+        <v>157301.4365501047</v>
       </c>
       <c r="I6" t="n">
-        <v>158319.9608073206</v>
+        <v>150119.184953935</v>
       </c>
       <c r="J6" t="n">
-        <v>118420.5270643687</v>
+        <v>107718.4794614042</v>
       </c>
       <c r="K6" t="n">
-        <v>153707.4986948507</v>
+        <v>143005.451091886</v>
       </c>
       <c r="L6" t="n">
-        <v>147727.6735397395</v>
+        <v>139645.9867410264</v>
       </c>
       <c r="M6" t="n">
-        <v>187128.0460025961</v>
+        <v>179046.3592038829</v>
       </c>
       <c r="N6" t="n">
-        <v>187128.0460025959</v>
+        <v>179046.3592038827</v>
       </c>
       <c r="O6" t="n">
-        <v>153707.4986948504</v>
+        <v>143005.4510918859</v>
       </c>
       <c r="P6" t="n">
-        <v>153707.4986948503</v>
+        <v>143005.4510918859</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>91.30379429216262</v>
       </c>
       <c r="J2" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="K2" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="L2" t="n">
         <v>93.35918011667277</v>
@@ -26724,10 +26724,10 @@
         <v>93.35918011667277</v>
       </c>
       <c r="O2" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="P2" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
     </row>
     <row r="3">
@@ -26916,13 +26916,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>86.16204325169439</v>
+        <v>86.1620432516944</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.141751040468243</v>
+        <v>5.141751040468229</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>44.10871453810228</v>
+        <v>44.10871453810229</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27153,13 +27153,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>86.16204325169439</v>
+        <v>86.1620432516944</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>5.141751040468243</v>
+        <v>5.141751040468229</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>44.10871453810228</v>
+        <v>44.10871453810229</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -29222,22 +29222,22 @@
         <v>91.30379429216262</v>
       </c>
       <c r="K25" t="n">
-        <v>91.30379429216262</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
-        <v>75.04748310488796</v>
+        <v>75.04748310488795</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>53.76491032793751</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>58.50533598597549</v>
       </c>
       <c r="O25" t="n">
-        <v>32.70597074174157</v>
+        <v>78.05238045116441</v>
       </c>
       <c r="P25" t="n">
-        <v>91.30379429216262</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
         <v>91.30379429216262</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -29322,28 +29322,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y26" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="27">
@@ -29353,28 +29353,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -29401,28 +29401,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y27" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="28">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="K28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="L28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="M28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="N28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="O28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="P28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Q28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="R28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y28" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -29559,28 +29559,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y29" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="30">
@@ -29590,28 +29590,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -29638,28 +29638,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y30" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="31">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="C31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="D31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="E31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="F31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="G31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="H31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="I31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="J31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="K31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="L31" t="n">
-        <v>49.25046557857043</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="M31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857047</v>
       </c>
       <c r="N31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="O31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="P31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Q31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="R31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="S31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="T31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="U31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="V31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="W31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="X31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
       <c r="Y31" t="n">
-        <v>49.25046557857052</v>
+        <v>49.25046557857051</v>
       </c>
     </row>
     <row r="32">
@@ -29936,13 +29936,13 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L34" t="n">
-        <v>75.04748310488796</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>26.53981326821116</v>
+        <v>63.0536314033635</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>38.5336649697355</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -30170,19 +30170,19 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>22.26949182588285</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="L37" t="n">
-        <v>75.04748310488796</v>
+        <v>75.04748310488795</v>
       </c>
       <c r="M37" t="n">
-        <v>63.05363140336351</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>26.53981326821105</v>
       </c>
       <c r="O37" t="n">
-        <v>34.57587015563757</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>93.35918011667277</v>
@@ -30410,19 +30410,19 @@
         <v>93.35918011667277</v>
       </c>
       <c r="L40" t="n">
-        <v>75.04748310488796</v>
+        <v>70.66606836532624</v>
       </c>
       <c r="M40" t="n">
-        <v>26.53981326821116</v>
+        <v>63.0536314033635</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>58.50533598597549</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>93.35918011667277</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
         <v>93.35918011667277</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="C41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="D41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="E41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="F41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="G41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="H41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="I41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="S41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="T41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="U41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="V41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="W41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="X41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Y41" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="C42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="D42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="E42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="F42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="G42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="H42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="I42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="S42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="T42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="U42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="V42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="W42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="X42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="C43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="D43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="E43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="F43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="G43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="H43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="I43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="J43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="K43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="L43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="M43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="N43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="O43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="P43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Q43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="R43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="S43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="T43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="U43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="V43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="W43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="X43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.2504655785705</v>
+        <v>49.25046557857048</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="C44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="D44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="E44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="F44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="G44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="H44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="I44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="S44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="T44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="U44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="V44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="W44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="X44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="Y44" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="C45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="D45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="E45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="F45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="G45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="H45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="I45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="S45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="T45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="U45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="V45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="W45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="X45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="C46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="D46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="E46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="F46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="G46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="H46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="I46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="J46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="K46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="L46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="M46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="N46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="O46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="P46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="Q46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="R46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="S46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="T46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="U46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="V46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="W46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="X46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.25046557857051</v>
+        <v>49.25046557857049</v>
       </c>
     </row>
   </sheetData>
@@ -36363,7 +36363,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>7.924825914033272</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="M23" t="n">
         <v>102.6375083652041</v>
@@ -36375,7 +36375,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="P23" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>28.39502468041879</v>
       </c>
       <c r="M24" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>102.6375083652041</v>
@@ -36454,7 +36454,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="P24" t="n">
-        <v>28.39502468041878</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36518,22 +36518,22 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>69.03430246627977</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M25" t="n">
-        <v>39.58387696184059</v>
+        <v>93.3487872897781</v>
       </c>
       <c r="N25" t="n">
-        <v>44.13217237922859</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O25" t="n">
-        <v>57.29109865578124</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P25" t="n">
-        <v>88.58235355705611</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
         <v>5.141751040468236</v>
@@ -36603,10 +36603,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="M26" t="n">
-        <v>98.49053833024638</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N26" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="O26" t="n">
         <v>102.6375083652041</v>
@@ -36679,22 +36679,22 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>28.39502468041878</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="N27" t="n">
-        <v>98.49053833024637</v>
-      </c>
-      <c r="O27" t="n">
-        <v>102.6375083652041</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>26.98097375268767</v>
+        <v>26.98097375268765</v>
       </c>
       <c r="L28" t="n">
-        <v>76.84049083888667</v>
+        <v>76.84049083888664</v>
       </c>
       <c r="M28" t="n">
-        <v>88.83434254041111</v>
+        <v>88.83434254041109</v>
       </c>
       <c r="N28" t="n">
-        <v>93.38263795779912</v>
+        <v>93.38263795779909</v>
       </c>
       <c r="O28" t="n">
-        <v>73.8355934926102</v>
+        <v>73.83559349261017</v>
       </c>
       <c r="P28" t="n">
-        <v>46.52902484346401</v>
+        <v>46.52902484346399</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L29" t="n">
-        <v>7.924825914033272</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M29" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N29" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="O29" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N30" t="n">
-        <v>98.49053833024637</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O30" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36992,22 +36992,22 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>26.98097375268767</v>
+        <v>26.98097375268765</v>
       </c>
       <c r="L31" t="n">
-        <v>76.84049083888657</v>
+        <v>76.84049083888664</v>
       </c>
       <c r="M31" t="n">
-        <v>88.83434254041111</v>
+        <v>88.83434254041106</v>
       </c>
       <c r="N31" t="n">
-        <v>93.38263795779912</v>
+        <v>93.38263795779909</v>
       </c>
       <c r="O31" t="n">
-        <v>73.8355934926102</v>
+        <v>73.83559349261017</v>
       </c>
       <c r="P31" t="n">
-        <v>46.52902484346401</v>
+        <v>46.52902484346399</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37074,19 +37074,19 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L32" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="M32" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O32" t="n">
-        <v>7.924825914033239</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>98.49053833024638</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="L33" t="n">
         <v>102.6375083652041</v>
@@ -37159,7 +37159,7 @@
         <v>102.6375083652041</v>
       </c>
       <c r="N33" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37232,13 +37232,13 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L34" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="M34" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="M34" t="n">
-        <v>66.12369023005175</v>
-      </c>
       <c r="N34" t="n">
-        <v>44.13217237922859</v>
+        <v>82.66583734896409</v>
       </c>
       <c r="O34" t="n">
         <v>24.58512791403967</v>
@@ -37308,19 +37308,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>7.924825914033245</v>
       </c>
       <c r="L35" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M35" t="n">
-        <v>7.924825914033268</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N35" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="O35" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>90.5657124162131</v>
@@ -37387,19 +37387,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
       <c r="N36" t="n">
+        <v>28.39502468041878</v>
+      </c>
+      <c r="O36" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="O36" t="n">
-        <v>28.39502468041881</v>
       </c>
       <c r="P36" t="n">
         <v>102.6375083652041</v>
@@ -37466,19 +37466,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L37" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M37" t="n">
-        <v>102.6375083652041</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N37" t="n">
-        <v>44.13217237922859</v>
+        <v>70.67198564743964</v>
       </c>
       <c r="O37" t="n">
-        <v>59.16099806967725</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P37" t="n">
         <v>90.63773938156626</v>
@@ -37548,7 +37548,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>102.6375083652041</v>
+        <v>7.924825914033245</v>
       </c>
       <c r="M38" t="n">
         <v>102.6375083652041</v>
@@ -37557,10 +37557,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="O38" t="n">
-        <v>98.49053833024634</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,22 +37627,22 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>28.39502468041882</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M39" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="N39" t="n">
+        <v>98.49053833024634</v>
+      </c>
+      <c r="O39" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37706,19 +37706,19 @@
         <v>71.08968829078992</v>
       </c>
       <c r="L40" t="n">
+        <v>98.25609362564238</v>
+      </c>
+      <c r="M40" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="M40" t="n">
-        <v>66.12369023005175</v>
-      </c>
       <c r="N40" t="n">
-        <v>44.13217237922859</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="O40" t="n">
         <v>24.58512791403967</v>
       </c>
       <c r="P40" t="n">
-        <v>90.63773938156626</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>7.19713686497839</v>
@@ -37785,10 +37785,10 @@
         <v>102.6375083652041</v>
       </c>
       <c r="L41" t="n">
-        <v>98.49053833024638</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="M41" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="N41" t="n">
         <v>102.6375083652041</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>102.6375083652041</v>
+        <v>98.49053833024634</v>
       </c>
       <c r="L42" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="N42" t="n">
-        <v>28.39502468041881</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="P42" t="n">
-        <v>0</v>
-      </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>26.98097375268765</v>
+        <v>26.98097375268763</v>
       </c>
       <c r="L43" t="n">
-        <v>76.84049083888664</v>
+        <v>76.84049083888662</v>
       </c>
       <c r="M43" t="n">
-        <v>88.83434254041109</v>
+        <v>88.83434254041107</v>
       </c>
       <c r="N43" t="n">
-        <v>93.38263795779909</v>
+        <v>93.38263795779908</v>
       </c>
       <c r="O43" t="n">
-        <v>73.83559349261017</v>
+        <v>73.83559349261016</v>
       </c>
       <c r="P43" t="n">
-        <v>46.52902484346399</v>
+        <v>46.52902484346397</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>7.924825914033245</v>
       </c>
       <c r="L44" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="M44" t="n">
-        <v>102.6375083652041</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>102.6375083652041</v>
       </c>
       <c r="O44" t="n">
-        <v>98.49053833024634</v>
+        <v>102.6375083652041</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,19 +38098,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
+        <v>28.39502468041879</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>102.6375083652041</v>
       </c>
-      <c r="L45" t="n">
+      <c r="O45" t="n">
         <v>102.6375083652041</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>28.39502468041881</v>
       </c>
       <c r="P45" t="n">
         <v>102.6375083652041</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>26.98097375268765</v>
+        <v>26.98097375268764</v>
       </c>
       <c r="L46" t="n">
         <v>76.84049083888664</v>
@@ -38192,7 +38192,7 @@
         <v>73.83559349261017</v>
       </c>
       <c r="P46" t="n">
-        <v>46.52902484346399</v>
+        <v>46.52902484346398</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
